--- a/outputs-HGR-r202/g__Clostridium_J.xlsx
+++ b/outputs-HGR-r202/g__Clostridium_J.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>s__Clostridium_J sp900548455</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +545,11 @@
           <t>s__Clostridium_J sp900548455</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -561,6 +576,11 @@
         <v>0.4929807435388632</v>
       </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>s__Clostridium_J sp900548455</t>
         </is>

--- a/outputs-HGR-r202/g__Clostridium_J.xlsx
+++ b/outputs-HGR-r202/g__Clostridium_J.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,26 +484,26 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2438.fa</t>
+          <t>even_MAG-GUT1081.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03849300822839059</v>
+        <v>0.02808509415735882</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06273434778533006</v>
+        <v>0.06097222586759225</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2415875531845399</v>
+        <v>0.2369124182701284</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5808255787085173</v>
+        <v>0.6346042264782267</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07635951209322235</v>
+        <v>0.03942603522669378</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5808255787085173</v>
+        <v>0.6346042264782267</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -519,26 +519,26 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46783.fa</t>
+          <t>even_MAG-GUT1184.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.037678455966052</v>
+        <v>0.03482658842789173</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0687110439237726</v>
+        <v>0.07137476069333411</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2566938318572734</v>
+        <v>0.2422594697255404</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5888883425294953</v>
+        <v>0.6111213107338623</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04802832572340666</v>
+        <v>0.04041787041937145</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5888883425294953</v>
+        <v>0.6111213107338623</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -554,33 +554,2273 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT1214.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.02880127193626968</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.06212866230523013</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2256921132862791</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.643341752206418</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.04003620026580307</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.643341752206418</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1240.fa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02836570719626602</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0571235809470538</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2211581539159281</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6625121670180762</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.03084039092267581</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6625121670180762</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1248.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.02815799137782776</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.05987527316131073</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2532396469992007</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6235320330851153</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.03519505537654546</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6235320330851153</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1455.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02971703545836874</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.06496361496255179</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2670231521292531</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5934379294138027</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04485826803602373</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5934379294138027</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1488.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0306945063479293</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06197139122762538</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2510278834674283</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.619421296160911</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.03688492279610593</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.619421296160911</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1500.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02731540910631459</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05395179818067961</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2017991560495458</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6894970379862577</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02743659867720221</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6894970379862577</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1509.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.03449449069052098</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.06495938007652007</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1934690415354339</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6764827469450613</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.03059434075246372</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6764827469450613</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1516.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.03500312467361869</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.06672096352320329</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2073314866506962</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6560043417847186</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.03494008336776314</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6560043417847186</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1578.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.03296076365924759</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.06785401988070833</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2210827913758263</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6366084266906253</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.04149399839359235</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.6366084266906253</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1882.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.03081670718239148</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.07354861325523655</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.298301104795167</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5410044010003563</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.05632917376684878</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.5410044010003563</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1894.fa</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.03291527747610792</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.06353687784245045</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.2028467354043736</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6692728678088602</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.03142824146820773</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6692728678088602</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1915.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.03174423982830601</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06334400753020415</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2870945419502215</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5745187402590763</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.04329847043219192</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.5745187402590763</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT2201.fa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.04112870118687129</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.06129565457548627</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4028350014277979</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4476974642290281</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0470431785808166</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4476974642290281</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT2438.fa</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.03849300822839059</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.06273434778533006</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.2415875531845399</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5808255787085173</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.07635951209322235</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5808255787085173</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT27453.fa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.03513760867224638</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.07923297031610728</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.4859325599711565</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.3342257429792154</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0654711180612743</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4859325599711565</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900547625</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900547625</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3474.fa</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.03475813442377357</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.06852766538018278</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.205486216868538</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6549653230829714</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.03626266024453431</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.6549653230829714</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3480.fa</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0319588985620366</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05998015162664853</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.2402095512688697</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6376475606176913</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.03020383792475376</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.6376475606176913</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT41852.fa</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.03363442919956661</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.05331062682014327</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3340790539506267</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5494337880418958</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.02954210198776771</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5494337880418958</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43402.fa</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.03647502660431009</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0705512063074258</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2146454314406235</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6441727627088506</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.03415557293879003</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6441727627088506</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43491.fa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.03101978513426129</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.06054519550966107</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.2116160975041748</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6661842108754522</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0306347109764507</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.6661842108754522</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43515.fa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.03144447307428477</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.06649220001671771</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.2435579639814283</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.615529849380131</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.04297551354743812</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.615529849380131</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT44179.fa</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.03068764667682531</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.06649580233899526</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.3005631833419189</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5560418620316043</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.04621150561065619</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5560418620316043</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT45687.fa</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.02891723870636053</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.06628435976236886</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.2926758061630543</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5587726450783469</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.05334995028986946</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5587726450783469</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT46783.fa</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.037678455966052</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0687110439237726</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2566938318572734</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5888883425294953</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.04802832572340666</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.5888883425294953</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47637.fa</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.03239799469918512</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.06552144772798595</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2415884413808968</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6214792975894827</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.03901281860244963</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.6214792975894827</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47723.fa</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0317507080162817</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.06232021495485471</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.2248041759610532</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.6474335391876022</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.03369136188020832</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.6474335391876022</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47782.fa</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.02974293151393895</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.06094606697378539</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2160973418348809</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.6611132075089893</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.03210045216840554</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.6611132075089893</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48571.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.03473064713473197</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.06828482237242117</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2055073758170692</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.6502681386940903</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0412090159816873</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.6502681386940903</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48940.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.02889796174264239</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.06395652041042846</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.252380977006761</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6088046333963012</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.04595990744386685</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6088046333963012</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49005.fa</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.02848822194989577</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0525615238739531</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.2451492092107872</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6457045884250623</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.02809645654030162</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.6457045884250623</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49071.fa</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.03603975760155063</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.07001173835079519</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.2316193830604438</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5981890295397035</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.06414009144750683</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.5981890295397035</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49179.fa</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.03009867863307964</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.07198263615597307</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.3042700962477707</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.531824193185779</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.06182439577739756</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.531824193185779</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT70165.fa</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.03495819325762732</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.05361328617073276</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.3636948597614255</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5077512948662244</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.03998236594399</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.5077512948662244</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7285.fa</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.03681988906733022</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.06414691845086568</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.230735143321058</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.6342065442586282</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.03409150490211791</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.6342065442586282</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT74675.fa</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B38" t="n">
         <v>0.04461510468744814</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C38" t="n">
         <v>0.08348577064985105</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D38" t="n">
         <v>0.2919206885088967</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E38" t="n">
         <v>0.4929807435388632</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F38" t="n">
         <v>0.08699769261494091</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G38" t="n">
         <v>0.4929807435388632</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>s__Clostridium_J sp900548455</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89102.fa</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.03614007440096929</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0643322755157939</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.2460594575625436</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.614571781102212</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.03889641141848109</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.614571781102212</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89255.fa</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0358814263201833</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.06512313327475105</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.1835848086671776</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.6764368059342244</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.03897382580366351</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.6764368059342244</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89282.fa</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.03888205309312964</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.06523802926567945</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.2227228232430179</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.6357396593924799</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.03741743500569313</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.6357396593924799</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89309.fa</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.04009135822423728</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.07567422625974166</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.2119309412349401</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.5979267905902729</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.07437668369080799</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.5979267905902729</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89335.fa</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.03716314910369604</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.06199741759371721</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.1720861065721862</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.6735755702618081</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0551777564685923</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6735755702618081</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89577.fa</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.04188339495323683</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.06664085270924543</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.1776238408348561</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6729665301356134</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.04088538136704829</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6729665301356134</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89735.fa</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.03294691446205623</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.06865907062970318</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.2554145768502986</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.5643571495885766</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.07862228846936548</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.5643571495885766</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89747.fa</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.03649077713182395</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.06162210419865366</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.1833897241887073</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.6867112352339708</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.03178615924684425</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.6867112352339708</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89833.fa</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.03826738413854362</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.06517867766161164</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.231012901317769</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.6313738770757907</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.03416715980628507</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.6313738770757907</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89836.fa</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.03585511424693696</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.06434987765976091</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.2406233705610425</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.6128897610372651</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0462818764949945</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.6128897610372651</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90694.fa</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.03332081468895921</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.05871644721331515</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.2512830249415889</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.6264720690856191</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.03020764407051767</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.6264720690856191</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91110.fa</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.03826738413854362</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.06517867766161164</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.231012901317769</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.6313738770757907</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.03416715980628507</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.6313738770757907</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91199.fa</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.03551404370959215</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.07147501793291516</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.2586057372635202</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.5908933588101407</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.04351184228383154</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.5908933588101407</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91265.fa</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.03079474637672589</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.05983682175918067</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.2169966888087657</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.6606467819949329</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.03172496106039481</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.6606467819949329</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91359.fa</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.03399230624239177</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0669663124352147</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.1866072179240523</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.677135903295098</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.03529826010324313</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.677135903295098</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91370.fa</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.02949243170889631</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.05271291451677068</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.2299540962026433</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.6622833405577148</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.02555721701397489</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.6622833405577148</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91379.fa</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0309746787052151</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.05674933983384414</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.2150285939628248</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.6699987546287588</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.02724863286935728</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.6699987546287588</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91430.fa</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.03138703048926434</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.06213764781807067</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.2541606731924395</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.6171223568833843</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.03519229161684122</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.6171223568833843</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91432.fa</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.03024774863752874</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.06010308907628669</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.2126733179702737</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.6621906297855884</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0347852145303225</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.6621906297855884</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91493.fa</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.02758161174155791</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.05517909111946961</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.2414410338764976</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.6463667482054326</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.02943151505704229</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.6463667482054326</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91537.fa</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.03354822890933587</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0630202291147464</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.2217196081173665</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.6536828903458514</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.02802904351269983</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.6536828903458514</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91584.fa</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.03183762750766785</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.06641426169082724</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.2247535111873665</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.6401506103660313</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.03684398924810717</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.6401506103660313</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91622.fa</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0340785215921869</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.06554838310505699</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.2255865679239565</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.6322527505930995</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.04253377678570013</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.6322527505930995</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91705.fa</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.03473459837127556</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.06859371981744025</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.1764601114164066</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.6863804544128999</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0338311159819779</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.6863804544128999</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91816.fa</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.03548029875686132</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.07221960246202017</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.2515970212408692</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.5903908832948034</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.05031219424544581</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.5903908832948034</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91830.fa</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.03394188736823424</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.0670129792962494</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.2720833027627512</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.5843733327461686</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.04258849782659663</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.5843733327461686</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91887.fa</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.02840783879373836</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.05724260948466404</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.2495949932667922</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.6327152215885783</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0320393368662272</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.6327152215885783</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91939.fa</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.03038020212755695</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.06079001277242448</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.2308042809429181</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.6460946522883708</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.03193085186872971</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.6460946522883708</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91958.fa</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.02921006588272887</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.06035873259852605</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.2130565433461417</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.662965973753187</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.03440868441941639</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.662965973753187</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91967.fa</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.03257441728084635</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.07566714835136709</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.2827144071528311</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.5483733187422569</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.06067070847269855</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.5483733187422569</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>s__Clostridium_J sp900548455</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>s__Clostridium_J sp900548455</t>
         </is>
